--- a/VoidWanderers.rte/Scenes/Data/ScenesProgress.xlsx
+++ b/VoidWanderers.rte/Scenes/Data/ScenesProgress.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Data Realms\Cortex Command V105\VoidWanderers.rte\Scenes\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="90" windowWidth="14355" windowHeight="5205"/>
   </bookViews>
@@ -114,6 +119,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -161,7 +169,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -196,7 +204,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -436,6 +444,9 @@
       <c r="B3" s="1">
         <v>1</v>
       </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">

--- a/VoidWanderers.rte/Scenes/Data/ScenesProgress.xlsx
+++ b/VoidWanderers.rte/Scenes/Data/ScenesProgress.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Data Realms\Cortex Command V105\VoidWanderers.rte\Scenes\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="90" windowWidth="14355" windowHeight="5205"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621" refMode="R1C1"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -169,7 +164,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -204,7 +199,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -416,7 +411,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -455,6 +450,9 @@
       <c r="B4" s="1">
         <v>1</v>
       </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -463,6 +461,9 @@
       <c r="B5" s="1">
         <v>1</v>
       </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -471,6 +472,9 @@
       <c r="B6" s="1">
         <v>1</v>
       </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -479,6 +483,9 @@
       <c r="B7" s="1">
         <v>1</v>
       </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -487,6 +494,9 @@
       <c r="B8" s="1">
         <v>1</v>
       </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -495,6 +505,9 @@
       <c r="B9" s="1">
         <v>1</v>
       </c>
+      <c r="C9" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -503,6 +516,9 @@
       <c r="B10" s="1">
         <v>1</v>
       </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -511,6 +527,9 @@
       <c r="B11" s="1">
         <v>1</v>
       </c>
+      <c r="C11" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -519,6 +538,9 @@
       <c r="B12" s="1">
         <v>1</v>
       </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -527,6 +549,9 @@
       <c r="B13" s="1">
         <v>1</v>
       </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -534,6 +559,9 @@
       </c>
       <c r="B14" s="1">
         <v>1</v>
+      </c>
+      <c r="C14" s="1">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/VoidWanderers.rte/Scenes/Data/ScenesProgress.xlsx
+++ b/VoidWanderers.rte/Scenes/Data/ScenesProgress.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Scenes_Basic - CC-11Y</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>Enemy</t>
+  </si>
+  <si>
+    <t>Assassinate</t>
   </si>
 </sst>
 </file>
@@ -408,31 +411,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>13</v>
       </c>
       <c r="C1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -442,8 +449,11 @@
       <c r="C3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -453,8 +463,11 @@
       <c r="C4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -464,8 +477,11 @@
       <c r="C5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -475,8 +491,11 @@
       <c r="C6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -486,8 +505,11 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -497,8 +519,11 @@
       <c r="C8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -508,8 +533,11 @@
       <c r="C9" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -519,8 +547,11 @@
       <c r="C10" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -530,8 +561,11 @@
       <c r="C11" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -541,8 +575,11 @@
       <c r="C12" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -552,8 +589,11 @@
       <c r="C13" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -561,6 +601,9 @@
         <v>1</v>
       </c>
       <c r="C14" s="1">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1">
         <v>3</v>
       </c>
     </row>

--- a/VoidWanderers.rte/Scenes/Data/ScenesProgress.xlsx
+++ b/VoidWanderers.rte/Scenes/Data/ScenesProgress.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Data Realms\Cortex Command V105 VW\VoidWanderers.rte\Scenes\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="90" windowWidth="14355" windowHeight="5205"/>
   </bookViews>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Scenes_Basic - CC-11Y</t>
   </si>
@@ -62,13 +67,40 @@
   </si>
   <si>
     <t>Assassinate</t>
+  </si>
+  <si>
+    <t>MP3 City</t>
+  </si>
+  <si>
+    <t>Suburbs</t>
+  </si>
+  <si>
+    <t>Tenements</t>
+  </si>
+  <si>
+    <t>Towers</t>
+  </si>
+  <si>
+    <t>City Prison</t>
+  </si>
+  <si>
+    <t>The Bank</t>
+  </si>
+  <si>
+    <t>Skyrise</t>
+  </si>
+  <si>
+    <t>Office</t>
+  </si>
+  <si>
+    <t>Mine</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,8 +109,15 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -88,6 +127,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -104,9 +149,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -167,7 +214,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -202,7 +249,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -411,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -423,7 +470,7 @@
     <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>13</v>
       </c>
@@ -433,13 +480,16 @@
       <c r="D1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -452,8 +502,11 @@
       <c r="D3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -466,8 +519,11 @@
       <c r="D4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -480,8 +536,11 @@
       <c r="D5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -494,8 +553,11 @@
       <c r="D6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -508,8 +570,11 @@
       <c r="D7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -522,8 +587,11 @@
       <c r="D8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -536,8 +604,11 @@
       <c r="D9" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -550,8 +621,11 @@
       <c r="D10" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -564,8 +638,11 @@
       <c r="D11" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -578,8 +655,11 @@
       <c r="D12" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -592,8 +672,11 @@
       <c r="D13" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -606,8 +689,127 @@
       <c r="D14" s="1">
         <v>3</v>
       </c>
+      <c r="E14" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1">
+        <v>2</v>
+      </c>
+      <c r="E19" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2</v>
+      </c>
+      <c r="D21" s="1">
+        <v>2</v>
+      </c>
+      <c r="E21" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/VoidWanderers.rte/Scenes/Data/ScenesProgress.xlsx
+++ b/VoidWanderers.rte/Scenes/Data/ScenesProgress.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Data Realms\Cortex Command V105 VW\VoidWanderers.rte\Scenes\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="90" windowWidth="14355" windowHeight="5205"/>
   </bookViews>
@@ -214,7 +209,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -249,7 +244,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -461,7 +456,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -739,6 +734,15 @@
       <c r="B18" s="1">
         <v>1</v>
       </c>
+      <c r="C18" s="1">
+        <v>4</v>
+      </c>
+      <c r="D18" s="1">
+        <v>4</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">

--- a/VoidWanderers.rte/Scenes/Data/ScenesProgress.xlsx
+++ b/VoidWanderers.rte/Scenes/Data/ScenesProgress.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Scenes_Basic - CC-11Y</t>
   </si>
@@ -89,6 +89,30 @@
   </si>
   <si>
     <t>Mine</t>
+  </si>
+  <si>
+    <t>MP3 Earth</t>
+  </si>
+  <si>
+    <t>Wastelands</t>
+  </si>
+  <si>
+    <t>Excavation</t>
+  </si>
+  <si>
+    <t>Ragnarok</t>
+  </si>
+  <si>
+    <t>Gryphon</t>
+  </si>
+  <si>
+    <t>Old Dam</t>
+  </si>
+  <si>
+    <t>Station 134</t>
+  </si>
+  <si>
+    <t>Dry Flats</t>
   </si>
 </sst>
 </file>
@@ -453,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -812,6 +836,133 @@
         <v>1</v>
       </c>
     </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1">
+        <v>2</v>
+      </c>
+      <c r="D24" s="1">
+        <v>2</v>
+      </c>
+      <c r="E24" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1">
+        <v>4</v>
+      </c>
+      <c r="D25" s="1">
+        <v>4</v>
+      </c>
+      <c r="E25" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1">
+        <v>3</v>
+      </c>
+      <c r="D26" s="1">
+        <v>3</v>
+      </c>
+      <c r="E26" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1">
+        <v>2</v>
+      </c>
+      <c r="D27" s="1">
+        <v>2</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1">
+        <v>2</v>
+      </c>
+      <c r="D29" s="1">
+        <v>2</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/VoidWanderers.rte/Scenes/Data/ScenesProgress.xlsx
+++ b/VoidWanderers.rte/Scenes/Data/ScenesProgress.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Scenes_Basic - CC-11Y</t>
   </si>
@@ -113,6 +113,33 @@
   </si>
   <si>
     <t>Dry Flats</t>
+  </si>
+  <si>
+    <t>MP3 Snow</t>
+  </si>
+  <si>
+    <t>Arctic Pole</t>
+  </si>
+  <si>
+    <t>Summit</t>
+  </si>
+  <si>
+    <t>Snow Cave</t>
+  </si>
+  <si>
+    <t>Missile Silo</t>
+  </si>
+  <si>
+    <t>Glacier</t>
+  </si>
+  <si>
+    <t>Ice Caves</t>
+  </si>
+  <si>
+    <t>Cold Slabs</t>
+  </si>
+  <si>
+    <t>Zombies</t>
   </si>
 </sst>
 </file>
@@ -136,7 +163,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -155,6 +182,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -168,11 +201,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -477,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,7 +523,7 @@
     <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>13</v>
       </c>
@@ -502,13 +536,16 @@
       <c r="E1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -524,8 +561,11 @@
       <c r="E3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -541,8 +581,11 @@
       <c r="E4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -558,8 +601,11 @@
       <c r="E5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -575,8 +621,11 @@
       <c r="E6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -592,8 +641,11 @@
       <c r="E7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -609,8 +661,11 @@
       <c r="E8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -626,8 +681,11 @@
       <c r="E9" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -643,8 +701,11 @@
       <c r="E10" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -660,8 +721,11 @@
       <c r="E11" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -677,8 +741,11 @@
       <c r="E12" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -694,8 +761,11 @@
       <c r="E13" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -711,13 +781,16 @@
       <c r="E14" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -961,7 +1034,129 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="1"/>
+      <c r="A31" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="4"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="1">
+        <v>1</v>
+      </c>
+      <c r="C33" s="1">
+        <v>2</v>
+      </c>
+      <c r="D33" s="1">
+        <v>2</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="1">
+        <v>1</v>
+      </c>
+      <c r="C34" s="1">
+        <v>2</v>
+      </c>
+      <c r="D34" s="1">
+        <v>2</v>
+      </c>
+      <c r="E34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="1">
+        <v>1</v>
+      </c>
+      <c r="C35" s="1">
+        <v>2</v>
+      </c>
+      <c r="D35" s="1">
+        <v>2</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="1">
+        <v>1</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1</v>
+      </c>
+      <c r="D36" s="1">
+        <v>1</v>
+      </c>
+      <c r="E36" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="1">
+        <v>1</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1</v>
+      </c>
+      <c r="D37" s="1">
+        <v>1</v>
+      </c>
+      <c r="E37" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="1">
+        <v>1</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1</v>
+      </c>
+      <c r="D38" s="1">
+        <v>1</v>
+      </c>
+      <c r="E38" s="1">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/VoidWanderers.rte/Scenes/Data/ScenesProgress.xlsx
+++ b/VoidWanderers.rte/Scenes/Data/ScenesProgress.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Data Realms\Cortex Command V105 VW\VoidWanderers.rte\Scenes\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="90" windowWidth="14355" windowHeight="5205"/>
   </bookViews>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>Scenes_Basic - CC-11Y</t>
   </si>
@@ -140,6 +145,42 @@
   </si>
   <si>
     <t>Zombies</t>
+  </si>
+  <si>
+    <t>MP3 Space</t>
+  </si>
+  <si>
+    <t>Command</t>
+  </si>
+  <si>
+    <t>Craters</t>
+  </si>
+  <si>
+    <t>Asteroids</t>
+  </si>
+  <si>
+    <t>Outpost</t>
+  </si>
+  <si>
+    <t>Comm Tower</t>
+  </si>
+  <si>
+    <t>The Dig</t>
+  </si>
+  <si>
+    <t>In Flight</t>
+  </si>
+  <si>
+    <t>MP3 Hell</t>
+  </si>
+  <si>
+    <t>The Pit</t>
+  </si>
+  <si>
+    <t>Limbo</t>
+  </si>
+  <si>
+    <t>Furnace</t>
   </si>
 </sst>
 </file>
@@ -267,7 +308,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -302,7 +343,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -511,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -806,8 +847,11 @@
       <c r="E16" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -823,8 +867,11 @@
       <c r="E17" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -840,8 +887,11 @@
       <c r="E18" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -857,8 +907,11 @@
       <c r="E19" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -874,8 +927,11 @@
       <c r="E20" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -891,8 +947,11 @@
       <c r="E21" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -908,13 +967,16 @@
       <c r="E22" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -930,8 +992,11 @@
       <c r="E24" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -947,8 +1012,11 @@
       <c r="E25" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -964,8 +1032,11 @@
       <c r="E26" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -981,8 +1052,11 @@
       <c r="E27" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -998,8 +1072,11 @@
       <c r="E28" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -1015,8 +1092,11 @@
       <c r="E29" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -1032,14 +1112,17 @@
       <c r="E30" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B31" s="4"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>34</v>
       </c>
@@ -1055,8 +1138,11 @@
       <c r="E32" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -1072,8 +1158,11 @@
       <c r="E33" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -1089,8 +1178,11 @@
       <c r="E34" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -1106,8 +1198,11 @@
       <c r="E35" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -1123,8 +1218,11 @@
       <c r="E36" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -1137,11 +1235,14 @@
       <c r="D37" s="1">
         <v>1</v>
       </c>
-      <c r="E37" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E37" s="2">
+        <v>0</v>
+      </c>
+      <c r="F37" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>40</v>
       </c>
@@ -1156,6 +1257,84 @@
       </c>
       <c r="E38" s="1">
         <v>1</v>
+      </c>
+      <c r="F38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" s="1">
+        <v>1</v>
+      </c>
+      <c r="C40" s="1">
+        <v>2</v>
+      </c>
+      <c r="D40" s="1">
+        <v>2</v>
+      </c>
+      <c r="E40" s="1">
+        <v>1</v>
+      </c>
+      <c r="F40" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/VoidWanderers.rte/Scenes/Data/ScenesProgress.xlsx
+++ b/VoidWanderers.rte/Scenes/Data/ScenesProgress.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Data Realms\Cortex Command V105 VW\VoidWanderers.rte\Scenes\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="90" windowWidth="14355" windowHeight="5205"/>
   </bookViews>
@@ -308,7 +303,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -343,7 +338,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -554,8 +549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1291,31 +1286,111 @@
       <c r="A41" t="s">
         <v>44</v>
       </c>
+      <c r="B41" s="1">
+        <v>1</v>
+      </c>
+      <c r="C41" s="1">
+        <v>2</v>
+      </c>
+      <c r="D41" s="1">
+        <v>2</v>
+      </c>
+      <c r="E41" s="1">
+        <v>1</v>
+      </c>
+      <c r="F41" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>45</v>
       </c>
+      <c r="B42" s="1">
+        <v>1</v>
+      </c>
+      <c r="C42" s="1">
+        <v>2</v>
+      </c>
+      <c r="D42" s="1">
+        <v>2</v>
+      </c>
+      <c r="E42" s="1">
+        <v>1</v>
+      </c>
+      <c r="F42" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>46</v>
       </c>
+      <c r="B43" s="1">
+        <v>1</v>
+      </c>
+      <c r="C43" s="1">
+        <v>1</v>
+      </c>
+      <c r="D43" s="1">
+        <v>1</v>
+      </c>
+      <c r="E43" s="1">
+        <v>1</v>
+      </c>
+      <c r="F43" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>47</v>
       </c>
+      <c r="B44" s="1">
+        <v>1</v>
+      </c>
+      <c r="C44" s="1">
+        <v>1</v>
+      </c>
+      <c r="D44" s="1">
+        <v>1</v>
+      </c>
+      <c r="E44" s="1">
+        <v>1</v>
+      </c>
+      <c r="F44" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>48</v>
       </c>
+      <c r="B45" s="1">
+        <v>1</v>
+      </c>
+      <c r="C45" s="1">
+        <v>1</v>
+      </c>
+      <c r="D45" s="1">
+        <v>1</v>
+      </c>
+      <c r="E45" s="1">
+        <v>1</v>
+      </c>
+      <c r="F45" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>49</v>
       </c>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">

--- a/VoidWanderers.rte/Scenes/Data/ScenesProgress.xlsx
+++ b/VoidWanderers.rte/Scenes/Data/ScenesProgress.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="14355" windowHeight="5205"/>
+    <workbookView xWindow="360" yWindow="90" windowWidth="14355" windowHeight="5205" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="weegee" sheetId="1" r:id="rId1"/>
+    <sheet name="grimmcrypt" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="55">
   <si>
     <t>Scenes_Basic - CC-11Y</t>
   </si>
@@ -176,6 +177,9 @@
   </si>
   <si>
     <t>Furnace</t>
+  </si>
+  <si>
+    <t>Scenes_Grimmcrypt - Sector 7</t>
   </si>
 </sst>
 </file>
@@ -549,8 +553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1416,4 +1420,44 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/VoidWanderers.rte/Scenes/Data/ScenesProgress.xlsx
+++ b/VoidWanderers.rte/Scenes/Data/ScenesProgress.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Data Realms\Cortex Command V105 VW\VoidWanderers.rte\Scenes\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="14355" windowHeight="5205" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="90" windowWidth="14355" windowHeight="5205"/>
   </bookViews>
   <sheets>
     <sheet name="weegee" sheetId="1" r:id="rId1"/>
@@ -203,7 +208,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -228,6 +233,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -241,12 +252,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -307,7 +319,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -342,7 +354,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -553,8 +565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F2"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1185,19 +1197,19 @@
       <c r="A35" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="1">
-        <v>1</v>
-      </c>
-      <c r="C35" s="1">
-        <v>2</v>
-      </c>
-      <c r="D35" s="1">
+      <c r="B35" s="5">
+        <v>1</v>
+      </c>
+      <c r="C35" s="5">
+        <v>2</v>
+      </c>
+      <c r="D35" s="5">
         <v>2</v>
       </c>
       <c r="E35" s="2">
         <v>0</v>
       </c>
-      <c r="F35" s="1">
+      <c r="F35" s="5">
         <v>1</v>
       </c>
     </row>
@@ -1426,7 +1438,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>

--- a/VoidWanderers.rte/Scenes/Data/ScenesProgress.xlsx
+++ b/VoidWanderers.rte/Scenes/Data/ScenesProgress.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Data Realms\Cortex Command V105 VW\VoidWanderers.rte\Scenes\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="90" windowWidth="14355" windowHeight="5205"/>
   </bookViews>
@@ -20,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="58">
   <si>
     <t>Scenes_Basic - CC-11Y</t>
   </si>
@@ -185,6 +180,15 @@
   </si>
   <si>
     <t>Scenes_Grimmcrypt - Sector 7</t>
+  </si>
+  <si>
+    <t>Grasslands Mining Outpost</t>
+  </si>
+  <si>
+    <t>Yskely Mining Outpost</t>
+  </si>
+  <si>
+    <t>Zekarra Mining Outpost</t>
   </si>
 </sst>
 </file>
@@ -208,7 +212,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -233,12 +237,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -252,13 +250,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -319,7 +316,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -354,7 +351,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -563,15 +560,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -838,25 +835,40 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>16</v>
+      <c r="A15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="B16" s="1">
         <v>1</v>
       </c>
       <c r="C16" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D16" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E16" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16" s="1">
         <v>2</v>
@@ -864,7 +876,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="B17" s="1">
         <v>1</v>
@@ -883,48 +895,33 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="1">
-        <v>1</v>
-      </c>
-      <c r="C18" s="1">
-        <v>4</v>
-      </c>
-      <c r="D18" s="1">
-        <v>4</v>
-      </c>
-      <c r="E18" s="1">
-        <v>1</v>
-      </c>
-      <c r="F18" s="1">
-        <v>1</v>
+      <c r="A18" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>1</v>
       </c>
       <c r="C19" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E19" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>1</v>
@@ -944,19 +941,19 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>1</v>
       </c>
       <c r="C21" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E21" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21" s="1">
         <v>1</v>
@@ -964,7 +961,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>1</v>
@@ -976,20 +973,35 @@
         <v>2</v>
       </c>
       <c r="E22" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>25</v>
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2</v>
+      </c>
+      <c r="D23" s="1">
+        <v>2</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>1</v>
@@ -1001,7 +1013,7 @@
         <v>2</v>
       </c>
       <c r="E24" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24" s="1">
         <v>1</v>
@@ -1009,47 +1021,32 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>1</v>
       </c>
       <c r="C25" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D25" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E25" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" s="1">
-        <v>1</v>
-      </c>
-      <c r="C26" s="1">
-        <v>3</v>
-      </c>
-      <c r="D26" s="1">
-        <v>3</v>
-      </c>
-      <c r="E26" s="1">
-        <v>2</v>
-      </c>
-      <c r="F26" s="1">
-        <v>1</v>
+      <c r="A26" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B27" s="1">
         <v>1</v>
@@ -1061,7 +1058,7 @@
         <v>2</v>
       </c>
       <c r="E27" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27" s="1">
         <v>1</v>
@@ -1069,19 +1066,19 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B28" s="1">
         <v>1</v>
       </c>
       <c r="C28" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D28" s="1">
-        <v>1</v>
-      </c>
-      <c r="E28" s="2">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="E28" s="1">
+        <v>2</v>
       </c>
       <c r="F28" s="1">
         <v>1</v>
@@ -1089,19 +1086,19 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B29" s="1">
         <v>1</v>
       </c>
       <c r="C29" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E29" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29" s="1">
         <v>1</v>
@@ -1109,16 +1106,16 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B30" s="1">
         <v>1</v>
       </c>
       <c r="C30" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D30" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E30" s="1">
         <v>1</v>
@@ -1128,23 +1125,37 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" s="4"/>
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B32" s="1">
         <v>1</v>
       </c>
       <c r="C32" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D32" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E32" s="1">
         <v>1</v>
@@ -1155,16 +1166,16 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B33" s="1">
         <v>1</v>
       </c>
       <c r="C33" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D33" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E33" s="1">
         <v>1</v>
@@ -1174,57 +1185,43 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>36</v>
-      </c>
-      <c r="B34" s="1">
-        <v>1</v>
-      </c>
-      <c r="C34" s="1">
-        <v>2</v>
-      </c>
-      <c r="D34" s="1">
-        <v>2</v>
-      </c>
-      <c r="E34" s="1">
-        <v>1</v>
-      </c>
-      <c r="F34" s="1">
-        <v>1</v>
-      </c>
+      <c r="A34" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="4"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>37</v>
-      </c>
-      <c r="B35" s="5">
-        <v>1</v>
-      </c>
-      <c r="C35" s="5">
-        <v>2</v>
-      </c>
-      <c r="D35" s="5">
-        <v>2</v>
-      </c>
-      <c r="E35" s="2">
-        <v>0</v>
-      </c>
-      <c r="F35" s="5">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1">
+        <v>1</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1</v>
+      </c>
+      <c r="E35" s="1">
+        <v>1</v>
+      </c>
+      <c r="F35" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B36" s="1">
         <v>1</v>
       </c>
       <c r="C36" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D36" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E36" s="1">
         <v>1</v>
@@ -1235,19 +1232,19 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B37" s="1">
         <v>1</v>
       </c>
       <c r="C37" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D37" s="1">
-        <v>1</v>
-      </c>
-      <c r="E37" s="2">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="E37" s="1">
+        <v>1</v>
       </c>
       <c r="F37" s="1">
         <v>1</v>
@@ -1255,44 +1252,59 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B38" s="1">
         <v>1</v>
       </c>
       <c r="C38" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D38" s="1">
-        <v>1</v>
-      </c>
-      <c r="E38" s="1">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="E38" s="2">
+        <v>0</v>
       </c>
       <c r="F38" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>42</v>
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1">
+        <v>1</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1</v>
+      </c>
+      <c r="D39" s="1">
+        <v>1</v>
+      </c>
+      <c r="E39" s="1">
+        <v>1</v>
+      </c>
+      <c r="F39" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B40" s="1">
         <v>1</v>
       </c>
       <c r="C40" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D40" s="1">
-        <v>2</v>
-      </c>
-      <c r="E40" s="1">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="E40" s="2">
+        <v>0</v>
       </c>
       <c r="F40" s="1">
         <v>1</v>
@@ -1300,16 +1312,16 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B41" s="1">
         <v>1</v>
       </c>
       <c r="C41" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D41" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E41" s="1">
         <v>1</v>
@@ -1319,37 +1331,22 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>45</v>
-      </c>
-      <c r="B42" s="1">
-        <v>1</v>
-      </c>
-      <c r="C42" s="1">
-        <v>2</v>
-      </c>
-      <c r="D42" s="1">
-        <v>2</v>
-      </c>
-      <c r="E42" s="1">
-        <v>1</v>
-      </c>
-      <c r="F42" s="1">
-        <v>1</v>
+      <c r="A42" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B43" s="1">
         <v>1</v>
       </c>
       <c r="C43" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D43" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E43" s="1">
         <v>1</v>
@@ -1360,16 +1357,16 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B44" s="1">
         <v>1</v>
       </c>
       <c r="C44" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D44" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E44" s="1">
         <v>1</v>
@@ -1380,16 +1377,16 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B45" s="1">
         <v>1</v>
       </c>
       <c r="C45" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D45" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E45" s="1">
         <v>1</v>
@@ -1400,31 +1397,91 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>49</v>
-      </c>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
+        <v>46</v>
+      </c>
+      <c r="B46" s="1">
+        <v>1</v>
+      </c>
+      <c r="C46" s="1">
+        <v>1</v>
+      </c>
+      <c r="D46" s="1">
+        <v>1</v>
+      </c>
+      <c r="E46" s="1">
+        <v>1</v>
+      </c>
+      <c r="F46" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>50</v>
+      <c r="A47" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" s="1">
+        <v>1</v>
+      </c>
+      <c r="C47" s="1">
+        <v>1</v>
+      </c>
+      <c r="D47" s="1">
+        <v>1</v>
+      </c>
+      <c r="E47" s="1">
+        <v>1</v>
+      </c>
+      <c r="F47" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" s="1">
+        <v>1</v>
+      </c>
+      <c r="C48" s="1">
+        <v>1</v>
+      </c>
+      <c r="D48" s="1">
+        <v>1</v>
+      </c>
+      <c r="E48" s="1">
+        <v>1</v>
+      </c>
+      <c r="F48" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>53</v>
       </c>
     </row>

--- a/VoidWanderers.rte/Scenes/Data/ScenesProgress.xlsx
+++ b/VoidWanderers.rte/Scenes/Data/ScenesProgress.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="59">
   <si>
     <t>Scenes_Basic - CC-11Y</t>
   </si>
@@ -189,6 +189,9 @@
   </si>
   <si>
     <t>Zekarra Mining Outpost</t>
+  </si>
+  <si>
+    <t>Squad</t>
   </si>
 </sst>
 </file>
@@ -560,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -572,7 +575,7 @@
     <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>13</v>
       </c>
@@ -588,13 +591,16 @@
       <c r="F1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -613,8 +619,11 @@
       <c r="F3" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -634,7 +643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -654,7 +663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -674,7 +683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -694,7 +703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -714,7 +723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -734,7 +743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -754,7 +763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -774,7 +783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -794,7 +803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -814,7 +823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -834,7 +843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>55</v>
       </c>
@@ -854,7 +863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>56</v>
       </c>

--- a/VoidWanderers.rte/Scenes/Data/ScenesProgress.xlsx
+++ b/VoidWanderers.rte/Scenes/Data/ScenesProgress.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Data Realms\Cortex Command V105 VW\VoidWanderers.rte\Scenes\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="90" windowWidth="14355" windowHeight="5205"/>
   </bookViews>
@@ -319,7 +324,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -354,7 +359,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -565,8 +570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -642,6 +647,9 @@
       <c r="F4" s="2">
         <v>0</v>
       </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -662,6 +670,9 @@
       <c r="F5" s="2">
         <v>0</v>
       </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -682,6 +693,9 @@
       <c r="F6" s="2">
         <v>0</v>
       </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -702,6 +716,9 @@
       <c r="F7" s="2">
         <v>0</v>
       </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -722,6 +739,9 @@
       <c r="F8" s="2">
         <v>0</v>
       </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -742,6 +762,9 @@
       <c r="F9" s="1">
         <v>1</v>
       </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -762,6 +785,9 @@
       <c r="F10" s="2">
         <v>0</v>
       </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -782,6 +808,9 @@
       <c r="F11" s="1">
         <v>1</v>
       </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -802,6 +831,9 @@
       <c r="F12" s="2">
         <v>0</v>
       </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -822,6 +854,9 @@
       <c r="F13" s="2">
         <v>0</v>
       </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -842,6 +877,9 @@
       <c r="F14" s="1">
         <v>1</v>
       </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -862,6 +900,9 @@
       <c r="F15" s="1">
         <v>1</v>
       </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -882,8 +923,11 @@
       <c r="F16" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>57</v>
       </c>
@@ -902,13 +946,16 @@
       <c r="F17" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -927,8 +974,11 @@
       <c r="F19" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -947,8 +997,11 @@
       <c r="F20" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -967,8 +1020,11 @@
       <c r="F21" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -987,8 +1043,11 @@
       <c r="F22" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1007,8 +1066,11 @@
       <c r="F23" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1027,8 +1089,11 @@
       <c r="F24" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1047,13 +1112,16 @@
       <c r="F25" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -1072,8 +1140,11 @@
       <c r="F27" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -1092,8 +1163,11 @@
       <c r="F28" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -1112,8 +1186,11 @@
       <c r="F29" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -1132,8 +1209,11 @@
       <c r="F30" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -1152,8 +1232,11 @@
       <c r="F31" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -1172,8 +1255,11 @@
       <c r="F32" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -1192,14 +1278,17 @@
       <c r="F33" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B34" s="4"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -1218,8 +1307,11 @@
       <c r="F35" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G35" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -1238,8 +1330,11 @@
       <c r="F36" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G36" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -1258,8 +1353,11 @@
       <c r="F37" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G37" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -1278,8 +1376,11 @@
       <c r="F38" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G38" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -1298,8 +1399,11 @@
       <c r="F39" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -1318,8 +1422,11 @@
       <c r="F40" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G40" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -1338,13 +1445,16 @@
       <c r="F41" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G41" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -1363,8 +1473,11 @@
       <c r="F43" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G43" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -1383,8 +1496,11 @@
       <c r="F44" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G44" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -1403,8 +1519,11 @@
       <c r="F45" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G45" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -1423,8 +1542,11 @@
       <c r="F46" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G46" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>47</v>
       </c>
@@ -1443,8 +1565,11 @@
       <c r="F47" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G47" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -1463,8 +1588,11 @@
       <c r="F48" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G48" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -1473,23 +1601,24 @@
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G49" s="2"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>53</v>
       </c>

--- a/VoidWanderers.rte/Scenes/Data/ScenesProgress.xlsx
+++ b/VoidWanderers.rte/Scenes/Data/ScenesProgress.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="66">
   <si>
     <t>Scenes_Basic - CC-11Y</t>
   </si>
@@ -197,6 +197,27 @@
   </si>
   <si>
     <t>Squad</t>
+  </si>
+  <si>
+    <t>Bundle 1 - 'Miranda'</t>
+  </si>
+  <si>
+    <t>Southlands</t>
+  </si>
+  <si>
+    <t>Cliffside</t>
+  </si>
+  <si>
+    <t>Lake</t>
+  </si>
+  <si>
+    <t>Grasslands Garrison</t>
+  </si>
+  <si>
+    <t>Silverhill Stronghold</t>
+  </si>
+  <si>
+    <t>Canyons</t>
   </si>
 </sst>
 </file>
@@ -568,10 +589,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I56" sqref="I56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1621,6 +1643,149 @@
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55" s="1">
+        <v>1</v>
+      </c>
+      <c r="C55" s="1">
+        <v>1</v>
+      </c>
+      <c r="D55" s="1">
+        <v>1</v>
+      </c>
+      <c r="E55" s="2">
+        <v>0</v>
+      </c>
+      <c r="F55" s="2">
+        <v>0</v>
+      </c>
+      <c r="G55" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56" s="1">
+        <v>1</v>
+      </c>
+      <c r="C56" s="1">
+        <v>2</v>
+      </c>
+      <c r="D56" s="1">
+        <v>2</v>
+      </c>
+      <c r="E56" s="2">
+        <v>0</v>
+      </c>
+      <c r="F56" s="1">
+        <v>1</v>
+      </c>
+      <c r="G56" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57" s="1">
+        <v>1</v>
+      </c>
+      <c r="C57" s="1">
+        <v>1</v>
+      </c>
+      <c r="D57" s="1">
+        <v>1</v>
+      </c>
+      <c r="E57" s="2">
+        <v>0</v>
+      </c>
+      <c r="F57" s="1">
+        <v>1</v>
+      </c>
+      <c r="G57" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58" s="1">
+        <v>1</v>
+      </c>
+      <c r="C58" s="1">
+        <v>1</v>
+      </c>
+      <c r="D58" s="1">
+        <v>1</v>
+      </c>
+      <c r="E58" s="1">
+        <v>1</v>
+      </c>
+      <c r="F58" s="1">
+        <v>1</v>
+      </c>
+      <c r="G58" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59" s="1">
+        <v>1</v>
+      </c>
+      <c r="C59" s="1">
+        <v>1</v>
+      </c>
+      <c r="D59" s="1">
+        <v>1</v>
+      </c>
+      <c r="E59" s="2">
+        <v>0</v>
+      </c>
+      <c r="F59" s="1">
+        <v>1</v>
+      </c>
+      <c r="G59" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60" s="1">
+        <v>1</v>
+      </c>
+      <c r="C60" s="1">
+        <v>1</v>
+      </c>
+      <c r="D60" s="1">
+        <v>1</v>
+      </c>
+      <c r="E60" s="1">
+        <v>1</v>
+      </c>
+      <c r="F60" s="2">
+        <v>0</v>
+      </c>
+      <c r="G60" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
